--- a/open_api.xlsx
+++ b/open_api.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3c81d74ebe16783/바탕 화면/open_api/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3c81d74ebe16783/바탕 화면/GIT/2022_KNU_Hackathon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="8_{8BB83B42-B4F9-4051-B1D1-6D2CE2032C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A15DEA5B-C591-4968-96A5-3FBDF0F62776}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="8_{8BB83B42-B4F9-4051-B1D1-6D2CE2032C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C211773-0E56-45D9-A0E7-6EAEF7DFE07E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="9" xr2:uid="{16F61ADE-7D72-42EA-B2A8-423653802C76}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{16F61ADE-7D72-42EA-B2A8-423653802C76}"/>
   </bookViews>
   <sheets>
     <sheet name="H1_areaCode" sheetId="1" r:id="rId1"/>
@@ -2128,73 +2128,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7771AB9F-AA65-4798-8E2D-9BF8F7A6DD8B}">
   <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="30.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>38</v>
@@ -2208,63 +2212,63 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="U2" s="2"/>
       <c r="V2" s="2" t="s">
         <v>86</v>
       </c>
@@ -2277,61 +2281,61 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="U3" s="2"/>
       <c r="V3" s="2" t="s">
         <v>98</v>
       </c>
@@ -2344,61 +2348,61 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="U4" s="2"/>
       <c r="V4" s="2" t="s">
         <v>107</v>
       </c>
@@ -2411,59 +2415,59 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="U5" s="2"/>
       <c r="V5" s="2" t="s">
         <v>107</v>
       </c>
@@ -2476,63 +2480,63 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="U6" s="2"/>
       <c r="V6" s="2" t="s">
         <v>127</v>
       </c>
@@ -2545,63 +2549,63 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="U7" s="2"/>
       <c r="V7" s="2" t="s">
         <v>138</v>
       </c>
@@ -2614,61 +2618,61 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="T8" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2" t="s">
-        <v>149</v>
-      </c>
+      <c r="U8" s="2"/>
       <c r="V8" s="2" t="s">
         <v>150</v>
       </c>
@@ -2681,57 +2685,57 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="2"/>
+      <c r="O9" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="R9" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="S9" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="T9" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="U9" s="2"/>
       <c r="V9" s="2" t="s">
         <v>150</v>
       </c>
@@ -2744,57 +2748,57 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="2"/>
+      <c r="O10" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="R10" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="S10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="T10" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="U10" s="2"/>
       <c r="V10" s="2" t="s">
         <v>162</v>
       </c>
@@ -2807,63 +2811,63 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>166</v>
       </c>
       <c r="N11" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="R11" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="T11" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="U11" s="2"/>
       <c r="V11" s="2" t="s">
         <v>172</v>
       </c>
@@ -3006,93 +3010,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A99A9D2-7E14-4BBF-9206-CE91B2D9154D}">
   <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="60" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="60" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>38</v>
@@ -3103,63 +3107,63 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="U2" s="2"/>
       <c r="V2" s="2" t="s">
         <v>86</v>
       </c>
@@ -3169,61 +3173,61 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="U3" s="2"/>
       <c r="V3" s="2" t="s">
         <v>98</v>
       </c>
@@ -3233,61 +3237,61 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="U4" s="2"/>
       <c r="V4" s="2" t="s">
         <v>107</v>
       </c>
@@ -3297,59 +3301,59 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="U5" s="2"/>
       <c r="V5" s="2" t="s">
         <v>107</v>
       </c>
@@ -3359,63 +3363,63 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="U6" s="2"/>
       <c r="V6" s="2" t="s">
         <v>127</v>
       </c>
@@ -3425,63 +3429,63 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="U7" s="2"/>
       <c r="V7" s="2" t="s">
         <v>138</v>
       </c>
@@ -3491,61 +3495,61 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="T8" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2" t="s">
-        <v>149</v>
-      </c>
+      <c r="U8" s="2"/>
       <c r="V8" s="2" t="s">
         <v>150</v>
       </c>
@@ -3555,57 +3559,57 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="2"/>
+      <c r="O9" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="R9" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="S9" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="T9" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="U9" s="2"/>
       <c r="V9" s="2" t="s">
         <v>150</v>
       </c>
@@ -3615,57 +3619,57 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="2"/>
+      <c r="O10" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="R10" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="S10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="T10" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="U10" s="2"/>
       <c r="V10" s="2" t="s">
         <v>162</v>
       </c>
@@ -3675,69 +3679,69 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>166</v>
       </c>
       <c r="N11" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="R11" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="T11" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="U11" s="2"/>
       <c r="V11" s="2" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3750,95 +3754,95 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.19921875" customWidth="1"/>
-    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="60" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.69921875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="60" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>65</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>66</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>174</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>67</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>68</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>69</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.4">
@@ -3846,64 +3850,64 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
         <v>71</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>39</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>4</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>41</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2034446</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>12</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>20151021001307</v>
       </c>
-      <c r="L2" t="s">
-        <v>175</v>
-      </c>
       <c r="M2" t="s">
+        <v>175</v>
+      </c>
+      <c r="N2" t="s">
         <v>77</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>78</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>128.62222329799999</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>35.802714204099999</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>6</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>20211220233158</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>5448</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>3</v>
-      </c>
-      <c r="V2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.4">
@@ -3911,61 +3915,61 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
         <v>87</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>42</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>43</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>130338</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>14</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>20071106105304</v>
       </c>
-      <c r="L3" t="s">
-        <v>175</v>
-      </c>
       <c r="M3" t="s">
+        <v>175</v>
+      </c>
+      <c r="N3" t="s">
         <v>91</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>92</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>128.6583163709</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>35.737719438500001</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>6</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>20220921112709</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>35368</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>3</v>
-      </c>
-      <c r="V3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
@@ -3973,61 +3977,61 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
         <v>99</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>4</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>44</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>45</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2704116</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>12</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>20210118230415</v>
       </c>
-      <c r="L4" t="s">
-        <v>175</v>
-      </c>
       <c r="M4" t="s">
+        <v>175</v>
+      </c>
+      <c r="N4" t="s">
         <v>102</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>103</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>128.46504163259999</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>35.8411597415</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>6</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>20210121184126</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>0</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>3</v>
-      </c>
-      <c r="V4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
@@ -4035,58 +4039,58 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
         <v>108</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>47</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>48</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2841697</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>39</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>20220823141859</v>
       </c>
-      <c r="L5" t="s">
-        <v>175</v>
-      </c>
       <c r="M5" t="s">
+        <v>175</v>
+      </c>
+      <c r="N5" t="s">
         <v>112</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>113</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>128.46357228470001</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>35.842362356199999</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>6</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>20220919150452</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>0</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>3</v>
-      </c>
-      <c r="V5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.4">
@@ -4094,64 +4098,64 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
         <v>117</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>50</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>4</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>42</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>51</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1115923</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>14</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>20101023010936</v>
       </c>
-      <c r="L6" t="s">
-        <v>175</v>
-      </c>
       <c r="M6" t="s">
+        <v>175</v>
+      </c>
+      <c r="N6" t="s">
         <v>120</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>121</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>128.61218284629999</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>35.8906568441</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>6</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>20220922160343</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>37208</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>5</v>
-      </c>
-      <c r="V6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.4">
@@ -4159,64 +4163,64 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
         <v>128</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>53</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>4</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>13</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>44</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>54</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>126133</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>12</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>20031110090000</v>
       </c>
-      <c r="L7" t="s">
-        <v>175</v>
-      </c>
       <c r="M7" t="s">
+        <v>175</v>
+      </c>
+      <c r="N7" t="s">
         <v>131</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>132</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>128.59230733749999</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>35.872053028300002</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>6</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>20220302173407</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>50414</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>8</v>
-      </c>
-      <c r="V7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.4">
@@ -4224,61 +4228,61 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" t="s">
         <v>139</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>4</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>42</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>51</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>129826</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>14</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>20071106103209</v>
       </c>
-      <c r="L8" t="s">
-        <v>175</v>
-      </c>
       <c r="M8" t="s">
+        <v>175</v>
+      </c>
+      <c r="N8" t="s">
         <v>142</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>143</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>128.48888357039999</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>35.855791855500001</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>6</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>20211112223332</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>34160</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>2</v>
-      </c>
-      <c r="V8" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.4">
@@ -4286,55 +4290,55 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
         <v>139</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>4</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>42</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>56</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1756254</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>14</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>20121123011545</v>
       </c>
-      <c r="L9" t="s">
-        <v>175</v>
-      </c>
-      <c r="O9">
+      <c r="M9" t="s">
+        <v>175</v>
+      </c>
+      <c r="P9">
         <v>128.48888357039999</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>35.855791855500001</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>6</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>20220407155157</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>22259</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>2</v>
-      </c>
-      <c r="V9" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.4">
@@ -4342,55 +4346,55 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
         <v>155</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>4</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>42</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>58</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>2665293</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>14</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>20200728010102</v>
       </c>
-      <c r="L10" t="s">
-        <v>175</v>
-      </c>
-      <c r="O10">
+      <c r="M10" t="s">
+        <v>175</v>
+      </c>
+      <c r="P10">
         <v>128.67864178510001</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>35.8583006239</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>6</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>20220426155742</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>0</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>7</v>
-      </c>
-      <c r="V10" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.4">
@@ -4398,64 +4402,64 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
         <v>163</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>60</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>4</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>13</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>61</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>62</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>2366500</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>12</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>20160204200133</v>
       </c>
-      <c r="L11" t="s">
-        <v>175</v>
-      </c>
       <c r="M11" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="N11" t="s">
         <v>166</v>
       </c>
-      <c r="O11">
+      <c r="O11" t="s">
+        <v>166</v>
+      </c>
+      <c r="P11">
         <v>128.60075806340001</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>35.819184167499998</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>6</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>20220519100601</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>4015</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>1</v>
-      </c>
-      <c r="V11" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4469,93 +4473,93 @@
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="47.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="60.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="60.3984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.4">
@@ -4563,245 +4567,245 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2" t="s">
-        <v>185</v>
-      </c>
+      <c r="U2" s="2"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>190</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2" t="s">
-        <v>195</v>
-      </c>
+      <c r="U3" s="2"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2" t="s">
-        <v>205</v>
-      </c>
+      <c r="U4" s="2"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>212</v>
       </c>
       <c r="N5" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.4">
@@ -4809,372 +4813,372 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2" t="s">
-        <v>231</v>
-      </c>
+      <c r="U6" s="2"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2" t="s">
-        <v>241</v>
-      </c>
+      <c r="U7" s="2"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="T8" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2" t="s">
-        <v>253</v>
-      </c>
+      <c r="U8" s="2"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="2"/>
+      <c r="O9" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="R9" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="S9" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="T9" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2" t="s">
-        <v>264</v>
-      </c>
+      <c r="U9" s="2"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="R10" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="S10" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="T10" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2" t="s">
-        <v>275</v>
-      </c>
+      <c r="U10" s="2"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="R11" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="T11" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2" t="s">
-        <v>286</v>
-      </c>
+      <c r="U11" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5187,76 +5191,77 @@
   <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="48.296875" customWidth="1"/>
-    <col min="3" max="3" width="39.5" customWidth="1"/>
+    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.296875" customWidth="1"/>
+    <col min="4" max="4" width="10.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>38</v>
@@ -5270,63 +5275,63 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="S2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="U2" s="2"/>
       <c r="V2" s="2" t="s">
         <v>86</v>
       </c>
@@ -5339,61 +5344,61 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="S3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="U3" s="2"/>
       <c r="V3" s="2" t="s">
         <v>107</v>
       </c>
@@ -5406,59 +5411,59 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="S4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="U4" s="2"/>
       <c r="V4" s="2" t="s">
         <v>107</v>
       </c>
@@ -5471,63 +5476,63 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="R5" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="S5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="T5" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="U5" s="2"/>
       <c r="V5" s="2" t="s">
         <v>127</v>
       </c>
@@ -5540,63 +5545,63 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="S6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="T6" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="U6" s="2"/>
       <c r="V6" s="2" t="s">
         <v>138</v>
       </c>
@@ -5609,57 +5614,57 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>14</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="2"/>
+      <c r="O7" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="S7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="T7" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="U7" s="2"/>
       <c r="V7" s="2" t="s">
         <v>150</v>
       </c>
@@ -5672,57 +5677,57 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="2"/>
+      <c r="O8" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="S8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="T8" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="U8" s="2"/>
       <c r="V8" s="2" t="s">
         <v>162</v>
       </c>
@@ -5735,63 +5740,63 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>166</v>
       </c>
       <c r="N9" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="R9" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="R9" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="S9" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="T9" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="U9" s="2"/>
       <c r="V9" s="2" t="s">
         <v>172</v>
       </c>
@@ -5804,61 +5809,61 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="R10" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="S10" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="T10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2" t="s">
-        <v>185</v>
-      </c>
+      <c r="U10" s="2"/>
       <c r="V10" s="2" t="s">
         <v>483</v>
       </c>
@@ -5871,63 +5876,63 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>190</v>
       </c>
       <c r="N11" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="R11" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="R11" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="S11" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="T11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2" t="s">
-        <v>195</v>
-      </c>
+      <c r="U11" s="2"/>
       <c r="V11" s="2" t="s">
         <v>484</v>
       </c>
@@ -5940,61 +5945,61 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="P12" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="Q12" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="R12" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="R12" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="S12" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="T12" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2" t="s">
-        <v>205</v>
-      </c>
+      <c r="U12" s="2"/>
       <c r="V12" s="2" t="s">
         <v>485</v>
       </c>
@@ -6007,63 +6012,63 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="Q13" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="R13" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="R13" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="S13" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="T13" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2" t="s">
-        <v>231</v>
-      </c>
+      <c r="U13" s="2"/>
       <c r="V13" s="2" t="s">
         <v>486</v>
       </c>
@@ -6076,61 +6081,61 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="O14" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="P14" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="Q14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="R14" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="R14" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="S14" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="T14" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2" t="s">
-        <v>241</v>
-      </c>
+      <c r="U14" s="2"/>
       <c r="V14" s="2" t="s">
         <v>487</v>
       </c>
@@ -6143,63 +6148,63 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="P15" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="Q15" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="R15" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="R15" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="S15" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="T15" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2" t="s">
-        <v>253</v>
-      </c>
+      <c r="U15" s="2"/>
       <c r="V15" s="2" t="s">
         <v>488</v>
       </c>
@@ -6212,59 +6217,59 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="2" t="s">
+      <c r="N16" s="2"/>
+      <c r="O16" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="Q16" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="R16" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="R16" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="S16" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="T16" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2" t="s">
-        <v>264</v>
-      </c>
+      <c r="U16" s="2"/>
       <c r="V16" s="2" t="s">
         <v>489</v>
       </c>
@@ -6277,63 +6282,63 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="O17" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="Q17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="R17" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="R17" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="S17" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="T17" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2" t="s">
-        <v>275</v>
-      </c>
+      <c r="U17" s="2"/>
       <c r="V17" s="2" t="s">
         <v>490</v>
       </c>
@@ -6346,63 +6351,63 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="O18" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="P18" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="Q18" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="R18" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="R18" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="S18" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="T18" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2" t="s">
-        <v>286</v>
-      </c>
+      <c r="U18" s="2"/>
       <c r="V18" s="2" t="s">
         <v>491</v>
       </c>

--- a/open_api.xlsx
+++ b/open_api.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3c81d74ebe16783/바탕 화면/GIT/2022_KNU_Hackathon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="8_{8BB83B42-B4F9-4051-B1D1-6D2CE2032C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C211773-0E56-45D9-A0E7-6EAEF7DFE07E}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="8_{8BB83B42-B4F9-4051-B1D1-6D2CE2032C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4DFBE1C-9A28-45CA-A577-42117AF9BA6B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{16F61ADE-7D72-42EA-B2A8-423653802C76}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="10" activeTab="10" xr2:uid="{16F61ADE-7D72-42EA-B2A8-423653802C76}"/>
   </bookViews>
   <sheets>
     <sheet name="H1_areaCode" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="H8_detailInfo" sheetId="7" r:id="rId8"/>
     <sheet name="H10_detailWithTour" sheetId="8" r:id="rId9"/>
     <sheet name="H11_areaBasedSyncList" sheetId="10" r:id="rId10"/>
+    <sheet name="data" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="495">
   <si>
     <t>달성군</t>
   </si>
@@ -1594,6 +1595,18 @@
   </si>
   <si>
     <t>41924</t>
+  </si>
+  <si>
+    <t>인문(문화/예술/역사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼핑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2128,7 +2141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7771AB9F-AA65-4798-8E2D-9BF8F7A6DD8B}">
   <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -2881,12 +2894,1505 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC607F9E-EEFF-437A-B0D8-439327A8A959}">
+  <dimension ref="A1:AJ25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AJ1" sqref="AJ1:AJ1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="28.8984375" customWidth="1"/>
+    <col min="3" max="3" width="47.796875" customWidth="1"/>
+    <col min="4" max="4" width="21.296875" customWidth="1"/>
+    <col min="6" max="6" width="17.59765625" customWidth="1"/>
+    <col min="7" max="7" width="23.8984375" customWidth="1"/>
+    <col min="8" max="8" width="20.796875" customWidth="1"/>
+    <col min="9" max="9" width="59" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="65" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.09765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="71.796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="58.8984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="35.296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="52.8984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="47" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="41.296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="41.09765625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="32.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="AJ5" s="2"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12">
+        <v>128.62222329799999</v>
+      </c>
+      <c r="H12">
+        <v>35.802714204099999</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="AH12" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13">
+        <v>128.6583163709</v>
+      </c>
+      <c r="H13">
+        <v>35.737719438500001</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="AH13" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14">
+        <v>128.46504163259999</v>
+      </c>
+      <c r="H14">
+        <v>35.8411597415</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="AH14" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G15">
+        <v>128.46357228470001</v>
+      </c>
+      <c r="H15">
+        <v>35.842362356199999</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16">
+        <v>128.61218284629999</v>
+      </c>
+      <c r="H16">
+        <v>35.8906568441</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17">
+        <v>128.59230733749999</v>
+      </c>
+      <c r="H17">
+        <v>35.872053028300002</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18">
+        <v>128.48888357039999</v>
+      </c>
+      <c r="H18">
+        <v>35.855791855500001</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19">
+        <v>128.48888357039999</v>
+      </c>
+      <c r="H19">
+        <v>35.855791855500001</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20">
+        <v>128.67864178510001</v>
+      </c>
+      <c r="H20">
+        <v>35.8583006239</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21">
+        <v>128.60075806340001</v>
+      </c>
+      <c r="H21">
+        <v>35.819184167499998</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE4D8C6-0DC7-402E-83B4-C54AA6FD42E6}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2927,7 +4433,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -3010,8 +4516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A99A9D2-7E14-4BBF-9206-CE91B2D9154D}">
   <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3753,8 +5259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC0AE93-6E39-4158-AF3B-C85FCF22203D}">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4472,8 +5978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8EB907-4F16-49B2-9541-E1259D6DC48C}">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6425,7 +7931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3D09D0-9F8F-4E32-A161-E3AA7B577ECA}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
@@ -7550,11 +9056,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49FCF21-6245-4B8D-97B2-E343FD2051C3}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="55.8984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
@@ -8622,11 +10132,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A32A5AE-44BF-4F8E-9A43-EB8E9A7C61BD}">
   <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="Y4" workbookViewId="0">
+      <selection activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="30" max="30" width="32.59765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
